--- a/docs/requirements.xlsx
+++ b/docs/requirements.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\machk\gitkraken\ContactManagement_Cpp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\machk\gitkraken\ContactManagement_Cpp\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE97E6B-2103-4743-8ED2-D551408B3CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211B7263-60B9-45EA-979C-53E06F60E542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38295" yWindow="14040" windowWidth="18210" windowHeight="14145" xr2:uid="{340D3BA9-DED5-4D78-B699-F026DAF55D84}"/>
+    <workbookView xWindow="16125" yWindow="4080" windowWidth="18210" windowHeight="15345" xr2:uid="{340D3BA9-DED5-4D78-B699-F026DAF55D84}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -589,8 +589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E0A45F5-B6DD-40B7-90D9-8B4C0B9D56DB}">
   <dimension ref="A1:A54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection sqref="A1:A54"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/docs/requirements.xlsx
+++ b/docs/requirements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\machk\gitkraken\ContactManagement_Cpp\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211B7263-60B9-45EA-979C-53E06F60E542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D7370A5-ADEB-44CA-8286-46D54B965519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16125" yWindow="4080" windowWidth="18210" windowHeight="15345" xr2:uid="{340D3BA9-DED5-4D78-B699-F026DAF55D84}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{340D3BA9-DED5-4D78-B699-F026DAF55D84}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="73">
   <si>
     <t>clean main (i.e. nothing in the main that should be in a class)</t>
   </si>
@@ -198,6 +198,63 @@
   </si>
   <si>
     <t>a nice extra that you think that should deserve grading (stuff you put time in and is not rewarded by an item above)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> addContact in contactmanager and filtercontacts in contactUI class</t>
+  </si>
+  <si>
+    <t>favoritecontact</t>
+  </si>
+  <si>
+    <t>vector of shared ptr to contact</t>
+  </si>
+  <si>
+    <t>displaycontactcount</t>
+  </si>
+  <si>
+    <t>shared ptr for values referring to contact objects</t>
+  </si>
+  <si>
+    <t>startautosave</t>
+  </si>
+  <si>
+    <t>clearfavoritecontact</t>
+  </si>
+  <si>
+    <t>displayfilteredcontacts contactui hpp</t>
+  </si>
+  <si>
+    <t>contact hpp</t>
+  </si>
+  <si>
+    <t>contacthpp and setfavoritecontact fro; contactmanagerhpp</t>
+  </si>
+  <si>
+    <t>isvalidchoice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">displaycontacts </t>
+  </si>
+  <si>
+    <t>displaydetails</t>
+  </si>
+  <si>
+    <t>jsonextension</t>
+  </si>
+  <si>
+    <t>saveto, loadfrom</t>
+  </si>
+  <si>
+    <t>exception handling</t>
+  </si>
+  <si>
+    <t>autosavefunction</t>
+  </si>
+  <si>
+    <t>cli</t>
+  </si>
+  <si>
+    <t>basic OOP</t>
   </si>
 </sst>
 </file>
@@ -587,15 +644,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E0A45F5-B6DD-40B7-90D9-8B4C0B9D56DB}">
-  <dimension ref="A1:A54"/>
+  <dimension ref="A1:B56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="92.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -678,194 +736,265 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
